--- a/data/trans_orig/P36BPD07_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>54493</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40664</v>
+        <v>39595</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71872</v>
+        <v>71377</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1709066504169837</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1275345930791149</v>
+        <v>0.1241841552923595</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2254123547265519</v>
+        <v>0.2238624374625979</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -762,19 +762,19 @@
         <v>44747</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33706</v>
+        <v>32928</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59531</v>
+        <v>57705</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1415785831697095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1066439116363026</v>
+        <v>0.1041821063022887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1883520947372331</v>
+        <v>0.1825742008529872</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -783,19 +783,19 @@
         <v>99240</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80239</v>
+        <v>82312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119895</v>
+        <v>118988</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.156306931876042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1263790030045674</v>
+        <v>0.129644799759861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1888388745891913</v>
+        <v>0.1874109487678881</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>264352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>246973</v>
+        <v>247468</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278181</v>
+        <v>279250</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8290933495830164</v>
+        <v>0.8290933495830165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7745876452734481</v>
+        <v>0.776137562537402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8724654069208851</v>
+        <v>0.8758158447076404</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>482</v>
@@ -833,19 +833,19 @@
         <v>271314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256530</v>
+        <v>258356</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282355</v>
+        <v>283133</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8584214168302904</v>
+        <v>0.8584214168302906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.811647905262767</v>
+        <v>0.8174257991470129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8933560883636974</v>
+        <v>0.8958178936977111</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>764</v>
@@ -854,19 +854,19 @@
         <v>535666</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>515011</v>
+        <v>515918</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>554667</v>
+        <v>552594</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8436930681239582</v>
+        <v>0.8436930681239579</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8111611254108086</v>
+        <v>0.8125890512321118</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8736209969954327</v>
+        <v>0.870355200240139</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>106453</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85018</v>
+        <v>85380</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133977</v>
+        <v>132859</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2006104903541734</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1602153772732618</v>
+        <v>0.1608975828374646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2524787757597275</v>
+        <v>0.2503721960553443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -979,19 +979,19 @@
         <v>101690</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84962</v>
+        <v>83721</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119051</v>
+        <v>120293</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1866021701984724</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1559061561024023</v>
+        <v>0.1536295036325853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.218461122144786</v>
+        <v>0.2207391189504112</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>198</v>
@@ -1000,19 +1000,19 @@
         <v>208143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>180989</v>
+        <v>179689</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>241590</v>
+        <v>235550</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1935131599260557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1682677443451743</v>
+        <v>0.1670590151661571</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2246088730177027</v>
+        <v>0.2189933263603202</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>424194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>396670</v>
+        <v>397788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>445629</v>
+        <v>445267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7993895096458267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7475212242402717</v>
+        <v>0.7496278039446554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8397846227267384</v>
+        <v>0.8391024171625353</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -1050,19 +1050,19 @@
         <v>443265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>425904</v>
+        <v>424662</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459993</v>
+        <v>461234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8133978298015275</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7815388778552137</v>
+        <v>0.7792608810495885</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8440938438975978</v>
+        <v>0.8463704963674137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>899</v>
@@ -1071,19 +1071,19 @@
         <v>867459</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>834012</v>
+        <v>840052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>894613</v>
+        <v>895913</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8064868400739442</v>
+        <v>0.8064868400739443</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7753911269822974</v>
+        <v>0.7810066736396799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8317322556548256</v>
+        <v>0.8329409848338437</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>62092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49472</v>
+        <v>48975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77787</v>
+        <v>78340</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1970380653155904</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1569891805490465</v>
+        <v>0.1554111970336588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2468416216137335</v>
+        <v>0.2485977143403517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1196,19 +1196,19 @@
         <v>41772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31642</v>
+        <v>32240</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52080</v>
+        <v>53030</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1174374934627747</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08895768285753812</v>
+        <v>0.09063880055214803</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1464149671193202</v>
+        <v>0.1490860990264102</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -1217,19 +1217,19 @@
         <v>103865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87585</v>
+        <v>86730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124773</v>
+        <v>122561</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1548307517002118</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1305629049261417</v>
+        <v>0.1292881764476153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1859983616572421</v>
+        <v>0.1827009179268245</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>253037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>237342</v>
+        <v>236789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265657</v>
+        <v>266154</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8029619346844096</v>
+        <v>0.8029619346844097</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7531583783862664</v>
+        <v>0.7514022856596485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8430108194509536</v>
+        <v>0.8445888029663412</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>474</v>
@@ -1267,19 +1267,19 @@
         <v>313927</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>303619</v>
+        <v>302669</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>324057</v>
+        <v>323459</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8825625065372255</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.85358503288068</v>
+        <v>0.8509139009735903</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9110423171424618</v>
+        <v>0.9093611994478522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>770</v>
@@ -1288,19 +1288,19 @@
         <v>566962</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>546054</v>
+        <v>548266</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>583242</v>
+        <v>584097</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8451692482997882</v>
+        <v>0.8451692482997883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.814001638342758</v>
+        <v>0.8172990820731754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8694370950738579</v>
+        <v>0.870711823552384</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>63821</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46464</v>
+        <v>46924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90380</v>
+        <v>85290</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1710343626951719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1245203335480586</v>
+        <v>0.1257532316496122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2422113205520873</v>
+        <v>0.228571059721795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1413,19 +1413,19 @@
         <v>64315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50480</v>
+        <v>50228</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82356</v>
+        <v>82983</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1528192175549671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1199461384351705</v>
+        <v>0.1193479663034911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1956868572802938</v>
+        <v>0.1971757264154881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -1434,19 +1434,19 @@
         <v>128136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106041</v>
+        <v>102731</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159064</v>
+        <v>155141</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1613795193183027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1335522771649526</v>
+        <v>0.1293843764763865</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2003322693911497</v>
+        <v>0.1953909389848504</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>309324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282765</v>
+        <v>287855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>326681</v>
+        <v>326221</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8289656373048281</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7577886794479127</v>
+        <v>0.7714289402782051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8754796664519414</v>
+        <v>0.8742467683503878</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>533</v>
@@ -1484,19 +1484,19 @@
         <v>356542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338501</v>
+        <v>337874</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370377</v>
+        <v>370629</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8471807824450327</v>
+        <v>0.847180782445033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8043131427197062</v>
+        <v>0.802824273584512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8800538615648293</v>
+        <v>0.880652033696509</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>783</v>
@@ -1505,19 +1505,19 @@
         <v>665866</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>634938</v>
+        <v>638861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687961</v>
+        <v>691271</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.838620480681697</v>
+        <v>0.8386204806816974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7996677306088502</v>
+        <v>0.8046090610151495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8664477228350478</v>
+        <v>0.8706156235236135</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>48607</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38146</v>
+        <v>37916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60499</v>
+        <v>61114</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2363415329822989</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1854783685649524</v>
+        <v>0.1843580113780026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2941635441838432</v>
+        <v>0.2971539438487811</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1630,19 +1630,19 @@
         <v>29083</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22299</v>
+        <v>22513</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38200</v>
+        <v>38096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1282174087953409</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0983093342469782</v>
+        <v>0.09925476872773006</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1684117721710305</v>
+        <v>0.1679565964192535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>118</v>
@@ -1651,19 +1651,19 @@
         <v>77690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65561</v>
+        <v>64740</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92303</v>
+        <v>92353</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1796345937723191</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1515901233740616</v>
+        <v>0.1496909946165326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2134234769395373</v>
+        <v>0.2135385484640595</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>157058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145166</v>
+        <v>144551</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167519</v>
+        <v>167749</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7636584670177009</v>
+        <v>0.7636584670177011</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7058364558161567</v>
+        <v>0.7028460561512189</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8145216314350475</v>
+        <v>0.8156419886219973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>433</v>
@@ -1701,19 +1701,19 @@
         <v>197740</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188623</v>
+        <v>188727</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204524</v>
+        <v>204310</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8717825912046592</v>
+        <v>0.8717825912046591</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8315882278289695</v>
+        <v>0.8320434035807464</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9016906657530217</v>
+        <v>0.90074523127227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>652</v>
@@ -1722,19 +1722,19 @@
         <v>354798</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>340185</v>
+        <v>340135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>366927</v>
+        <v>367748</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8203654062276808</v>
+        <v>0.8203654062276807</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7865765230604634</v>
+        <v>0.7864614515359405</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8484098766259383</v>
+        <v>0.8503090053834673</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>38591</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28895</v>
+        <v>29457</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50610</v>
+        <v>51029</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1425554453112586</v>
+        <v>0.1425554453112587</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1067374263396174</v>
+        <v>0.1088158004548014</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1869532943484073</v>
+        <v>0.1885026039536096</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1847,19 +1847,19 @@
         <v>19083</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12951</v>
+        <v>13117</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26061</v>
+        <v>28219</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07235385917907236</v>
+        <v>0.07235385917907235</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04910173602078613</v>
+        <v>0.04973220132561058</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09881110902443239</v>
+        <v>0.106990768834624</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -1868,19 +1868,19 @@
         <v>57674</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46299</v>
+        <v>45717</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72191</v>
+        <v>71143</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1079115367455602</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0866283079857896</v>
+        <v>0.08553971287280797</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1350744560780019</v>
+        <v>0.133112380414255</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>232116</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>220097</v>
+        <v>219678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241812</v>
+        <v>241250</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8574445546887415</v>
+        <v>0.8574445546887414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.813046705651593</v>
+        <v>0.811497396046391</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8932625736603829</v>
+        <v>0.8911841995451992</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>430</v>
@@ -1918,19 +1918,19 @@
         <v>244667</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>237689</v>
+        <v>235531</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250799</v>
+        <v>250633</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9276461408209278</v>
+        <v>0.9276461408209276</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9011888909755676</v>
+        <v>0.893009231165376</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.950898263979214</v>
+        <v>0.9502677986743895</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>754</v>
@@ -1939,19 +1939,19 @@
         <v>476783</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>462266</v>
+        <v>463314</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>488158</v>
+        <v>488740</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8920884632544399</v>
+        <v>0.8920884632544398</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8649255439219981</v>
+        <v>0.866887619585745</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9133716920142103</v>
+        <v>0.9144602871271921</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>139191</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113503</v>
+        <v>115835</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>168023</v>
+        <v>167243</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1942385588609443</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1583922490833171</v>
+        <v>0.161646793650456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2344739732342236</v>
+        <v>0.2333851225988037</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>160</v>
@@ -2064,19 +2064,19 @@
         <v>144488</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125256</v>
+        <v>123080</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169444</v>
+        <v>167284</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1876710930947035</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1626909598578897</v>
+        <v>0.1598654259463524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2200856578771491</v>
+        <v>0.2172808365770109</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>265</v>
@@ -2085,19 +2085,19 @@
         <v>283678</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>254156</v>
+        <v>250504</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>324765</v>
+        <v>318780</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1908370773124439</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1709769933915931</v>
+        <v>0.1685201634604766</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.218477148905929</v>
+        <v>0.2144509627338876</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>577405</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>548573</v>
+        <v>549353</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>603093</v>
+        <v>600761</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8057614411390557</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7655260267657762</v>
+        <v>0.7666148774011963</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8416077509166828</v>
+        <v>0.8383532063495439</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>797</v>
@@ -2135,19 +2135,19 @@
         <v>625411</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>600455</v>
+        <v>602615</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>644643</v>
+        <v>646819</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8123289069052965</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7799143421228507</v>
+        <v>0.7827191634229892</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8373090401421102</v>
+        <v>0.8401345740536476</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1288</v>
@@ -2156,19 +2156,19 @@
         <v>1202817</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1161730</v>
+        <v>1167715</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1232339</v>
+        <v>1235991</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8091629226875562</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7815228510940716</v>
+        <v>0.7855490372661126</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8290230066084071</v>
+        <v>0.8314798365395234</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>493355</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>463167</v>
+        <v>463512</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>519466</v>
+        <v>521715</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.619114199333887</v>
+        <v>0.6191141993338869</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.581231135714163</v>
+        <v>0.5816633365934016</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6518801763541836</v>
+        <v>0.6547023676976792</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>553</v>
@@ -2281,19 +2281,19 @@
         <v>438379</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>414725</v>
+        <v>411999</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>464489</v>
+        <v>464287</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5282099123468923</v>
+        <v>0.5282099123468924</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4997087249076819</v>
+        <v>0.4964237241142272</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5596694910678465</v>
+        <v>0.5594267115593381</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1016</v>
@@ -2302,19 +2302,19 @@
         <v>931735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>891418</v>
+        <v>889995</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>972234</v>
+        <v>971560</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5727383572744291</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5479555722123428</v>
+        <v>0.5470810765788998</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.59763311851595</v>
+        <v>0.5972187991483512</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>303518</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>277407</v>
+        <v>275158</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>333706</v>
+        <v>333361</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3808858006661132</v>
+        <v>0.3808858006661131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3481198236458163</v>
+        <v>0.3452976323023208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4187688642858369</v>
+        <v>0.4183366634065984</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>507</v>
@@ -2352,19 +2352,19 @@
         <v>391555</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>365445</v>
+        <v>365647</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>415209</v>
+        <v>417935</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4717900876531076</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4403305089321536</v>
+        <v>0.4405732884406618</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5002912750923182</v>
+        <v>0.5035762758857726</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>805</v>
@@ -2373,19 +2373,19 @@
         <v>695072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>654573</v>
+        <v>655247</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>735389</v>
+        <v>736812</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4272616427255709</v>
+        <v>0.4272616427255708</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4023668814840501</v>
+        <v>0.4027812008516489</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4520444277876573</v>
+        <v>0.4529189234211002</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>1006603</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>946519</v>
+        <v>947048</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1070065</v>
+        <v>1070587</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2853500960977597</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2683177184577972</v>
+        <v>0.2684676746591798</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3033402939690669</v>
+        <v>0.3034880772338439</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1109</v>
@@ -2498,19 +2498,19 @@
         <v>883558</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>833786</v>
+        <v>834587</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>931534</v>
+        <v>936029</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2370072405690868</v>
+        <v>0.2370072405690869</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2236564150196443</v>
+        <v>0.223871296456766</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2498763709325044</v>
+        <v>0.2510821639430623</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2009</v>
@@ -2519,19 +2519,19 @@
         <v>1890161</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1813076</v>
+        <v>1816199</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1968403</v>
+        <v>1968221</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2605111505648273</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2498869857498086</v>
+        <v>0.2503173368161992</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2712948413537006</v>
+        <v>0.2712698007998406</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>2521004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2457542</v>
+        <v>2457020</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2581088</v>
+        <v>2580559</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7146499039022403</v>
+        <v>0.7146499039022404</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6966597060309331</v>
+        <v>0.6965119227661558</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7316822815422028</v>
+        <v>0.7315323253408202</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4244</v>
@@ -2569,19 +2569,19 @@
         <v>2844420</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2796444</v>
+        <v>2791949</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2894192</v>
+        <v>2893391</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7629927594309129</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7501236290674956</v>
+        <v>0.7489178360569376</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7763435849803556</v>
+        <v>0.776128703543234</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6715</v>
@@ -2590,19 +2590,19 @@
         <v>5365424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5287182</v>
+        <v>5287364</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5442509</v>
+        <v>5439386</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7394888494351726</v>
+        <v>0.7394888494351727</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7287051586462991</v>
+        <v>0.7287301992001592</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7501130142501912</v>
+        <v>0.7496826631838003</v>
       </c>
     </row>
     <row r="30">
